--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,142 +61,142 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>competition</t>
   </si>
   <si>
     <t>clean</t>
@@ -958,10 +958,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1240,7 +1240,7 @@
         <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1290,7 +1290,7 @@
         <v>392</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.9310344827586207</v>
@@ -1340,7 +1340,7 @@
         <v>133</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.8947368421052632</v>
@@ -1369,28 +1369,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09027777777777778</v>
+        <v>0.01247872943845718</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F10">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>1741</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.8888888888888888</v>
@@ -1419,13 +1419,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01247872943845718</v>
+        <v>0.01143082380764683</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>402</v>
+        <v>599</v>
       </c>
       <c r="E11">
         <v>0.95</v>
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1741</v>
+        <v>2508</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>0.8846153846153846</v>
@@ -1465,32 +1465,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.01143082380764683</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>599</v>
-      </c>
-      <c r="E12">
-        <v>0.95</v>
-      </c>
-      <c r="F12">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2508</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.8666666666666667</v>
@@ -1516,7 +1492,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1542,7 +1518,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1568,7 +1544,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.8661417322834646</v>
@@ -1594,7 +1570,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.8636363636363636</v>
@@ -1620,7 +1596,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1646,7 +1622,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.825</v>
@@ -1672,7 +1648,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>0.8181818181818182</v>
@@ -1698,7 +1674,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.8095238095238095</v>
@@ -1724,7 +1700,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.8</v>
@@ -1750,7 +1726,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.7872340425531915</v>
@@ -1776,7 +1752,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.7777777777777778</v>
@@ -1802,7 +1778,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.7515923566878981</v>
@@ -1828,7 +1804,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>0.7272727272727273</v>
@@ -1854,7 +1830,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>0.723404255319149</v>
@@ -1880,7 +1856,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>0.7142857142857143</v>
@@ -1906,7 +1882,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>0.7029702970297029</v>
@@ -1932,7 +1908,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.7017543859649122</v>
@@ -1958,94 +1934,94 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.6824034334763949</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L30">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="M30">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.6777777777777778</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2057,12 +2033,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>0.65</v>
@@ -2088,7 +2064,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>0.6428571428571429</v>
@@ -2114,7 +2090,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>0.6304347826086957</v>
@@ -2140,7 +2116,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>0.6285714285714286</v>
@@ -2166,7 +2142,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>0.6274509803921569</v>
@@ -2192,28 +2168,28 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.599388379204893</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L39">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2227,13 +2203,13 @@
         <v>13</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -2247,25 +2223,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.5909090909090909</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N41">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.13</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2273,25 +2249,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2299,25 +2275,25 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2351,13 +2327,13 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.5769230769230769</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2369,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -5000,7 +4976,7 @@
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K147">
         <v>0.1851851851851852</v>
@@ -5052,7 +5028,7 @@
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K149">
         <v>0.1791607732201791</v>
